--- a/biology/Médecine/André-Pierre_Contandriopoulos/André-Pierre_Contandriopoulos.xlsx
+++ b/biology/Médecine/André-Pierre_Contandriopoulos/André-Pierre_Contandriopoulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Pierre_Contandriopoulos</t>
+          <t>André-Pierre_Contandriopoulos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André-Pierre Contandriopoulos (né en 1943 à Dieulefit, Drôme, France) est professeur émérite en administration de la santé à l'École de santé publique de l'Université de Montréal et membre de la Société royale du Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Pierre_Contandriopoulos</t>
+          <t>André-Pierre_Contandriopoulos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Travaux de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses recherches et ses interventions publiques ont largement contribué à influencer le système public de santé du Québec. En particulier, ses travaux sur le financement des soins et l'importance de préserver un système public et universel d'assurance maladie ont souvent été au cœur des débats publics sur ce thème. Il a formé plusieurs dizaines d'étudiants de maîtrise et de doctorat et ses idées ont eu une influence significative dans le domaine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Pierre_Contandriopoulos</t>
+          <t>André-Pierre_Contandriopoulos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste de ses principales publications
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Belgique Canada Brésil WorldCat 
